--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,6 +607,85 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>ig-supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/igsSupported}
+</t>
+  </si>
+  <si>
+    <t>IGs Supported</t>
+  </si>
+  <si>
+    <t>IGs Supported document the different types of IGs supported by the Endpoint.</t>
+  </si>
+  <si>
+    <t>endpoint-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/endpointType}
+</t>
+  </si>
+  <si>
+    <t>Endpoint Type</t>
+  </si>
+  <si>
+    <t>Type of Endpoint</t>
+  </si>
+  <si>
+    <t>secure-exchange-artifacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/secureExchangeArtifacts}
+</t>
+  </si>
+  <si>
+    <t>Secure Exchange Artifacts</t>
+  </si>
+  <si>
+    <t>trust-framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/trustFramework}
+</t>
+  </si>
+  <si>
+    <t>Trust Framework</t>
+  </si>
+  <si>
+    <t>dynamic-registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/dynamicRegistration}
+</t>
+  </si>
+  <si>
+    <t>Dynamic Registration</t>
+  </si>
+  <si>
+    <t>associated-servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/associatedServers}
+</t>
+  </si>
+  <si>
+    <t>Associated Servers</t>
+  </si>
+  <si>
+    <t>secured-endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/secureEndpoint}
+</t>
+  </si>
+  <si>
+    <t>Secure Endpoint</t>
+  </si>
+  <si>
+    <t>Is the Endpoint Secured</t>
   </si>
   <si>
     <t>Endpoint.modifierExtension</t>
@@ -1238,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1248,7 +1327,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.87890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.07421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3174,13 +3253,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3190,29 +3271,25 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N19" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3260,7 +3337,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3269,23 +3346,25 @@
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3297,22 +3376,22 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3363,7 +3442,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3372,61 +3451,61 @@
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
@@ -3444,13 +3523,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3468,41 +3547,43 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>83</v>
@@ -3511,20 +3592,18 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3549,11 +3628,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -3571,32 +3652,34 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3605,7 +3688,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>83</v>
@@ -3614,16 +3697,16 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3674,32 +3757,34 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3708,29 +3793,27 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3779,32 +3862,34 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3813,10 +3898,10 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3825,13 +3910,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3882,7 +3967,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3891,13 +3976,13 @@
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -3905,39 +3990,43 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3985,22 +4074,22 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4008,11 +4097,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4028,20 +4117,18 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4078,19 +4165,19 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4102,18 +4189,18 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4121,7 +4208,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
@@ -4130,7 +4217,7 @@
         <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
@@ -4139,19 +4226,21 @@
         <v>157</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4169,13 +4258,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4193,30 +4282,30 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4224,7 +4313,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
@@ -4239,20 +4328,18 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4276,13 +4363,11 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4300,10 +4385,10 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -4315,15 +4400,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4337,29 +4422,25 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4383,13 +4464,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4407,7 +4488,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4422,15 +4503,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4444,7 +4525,7 @@
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4453,16 +4534,16 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4512,7 +4593,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4533,9 +4614,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4546,25 +4627,25 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4615,13 +4696,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4630,7 +4711,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4638,7 +4719,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4658,16 +4739,16 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4718,7 +4799,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4730,50 +4811,50 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4799,32 +4880,34 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4833,7 +4916,7 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
@@ -4844,7 +4927,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4855,7 +4938,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>83</v>
@@ -4870,14 +4953,12 @@
         <v>157</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -4902,13 +4983,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -4926,22 +5007,22 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -4949,7 +5030,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4957,7 +5038,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>82</v>
@@ -4972,18 +5053,20 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5031,10 +5114,10 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -5046,7 +5129,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5054,7 +5137,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5065,30 +5148,32 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5112,13 +5197,13 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5136,13 +5221,13 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -5151,14 +5236,743 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
     </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK37">
+  <autoFilter ref="A1:AK44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5168,7 +5982,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Endpoint</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>endpoint-usecase</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/endpoint-usecase}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/endpoint-usecase}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>ig-supported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/igsSupported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/igsSupported}
 </t>
   </si>
   <si>
@@ -625,7 +625,7 @@
     <t>endpoint-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/endpointType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/endpointType}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>secure-exchange-artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/secureExchangeArtifacts}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/secureExchangeArtifacts}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>trust-framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/trustFramework}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/trustFramework}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>dynamic-registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/dynamicRegistration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/dynamicRegistration}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>associated-servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/associatedServers}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/associatedServers}
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>secured-endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/secureEndpoint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/secureEndpoint}
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
     <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/EndpointConnectionTypeVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/EndpointConnectionTypeVS</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -777,7 +777,7 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/EndpointPayloadTypeVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/EndpointPayloadTypeVS</t>
   </si>
   <si>
     <t>Endpoint.payloadMimeType</t>
@@ -1350,7 +1350,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.90625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.68359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Endpoint</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>endpoint-usecase</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/endpoint-usecase}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpoint-usecase}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>ig-supported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/igsSupported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/igsSupported}
 </t>
   </si>
   <si>
@@ -625,7 +625,7 @@
     <t>endpoint-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/endpointType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpointType}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>secure-exchange-artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/secureExchangeArtifacts}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureExchangeArtifacts}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>trust-framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/trustFramework}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/trustFramework}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>dynamic-registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/dynamicRegistration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/dynamicRegistration}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>associated-servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/associatedServers}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/associatedServers}
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>secured-endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory/StructureDefinition/secureEndpoint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureEndpoint}
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
     <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/EndpointConnectionTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/EndpointConnectionTypeVS</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -777,7 +777,7 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/EndpointPayloadTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/EndpointPayloadTypeVS</t>
   </si>
   <si>
     <t>Endpoint.payloadMimeType</t>
@@ -1350,7 +1350,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDir-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDir-Endpoint.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Endpoint</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>endpoint-usecase</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpoint-usecase}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpoint-usecase}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>ig-supported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/igsSupported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/igsSupported}
 </t>
   </si>
   <si>
@@ -625,7 +625,7 @@
     <t>endpoint-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpointType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpointType}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>secure-exchange-artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureExchangeArtifacts}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureExchangeArtifacts}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>trust-framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/trustFramework}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/trustFramework}
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>dynamic-registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/dynamicRegistration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/dynamicRegistration}
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <t>associated-servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/associatedServers}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/associatedServers}
 </t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t>secured-endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/secureEndpoint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/secureEndpoint}
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
     <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/EndpointConnectionTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointConnectionTypeVS</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -777,7 +777,7 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/EndpointPayloadTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointPayloadTypeVS</t>
   </si>
   <si>
     <t>Endpoint.payloadMimeType</t>
